--- a/inventery app/moter.xlsx
+++ b/inventery app/moter.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Open Gates</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>gdhgfhffffffffffffffffffffffffffffffffg</t>
+  </si>
+  <si>
+    <t>bhouni tamy mahan</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,7 +1328,7 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickTop="1">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1">
       <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
@@ -1333,8 +1336,11 @@
         <v>17</v>
       </c>
       <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>9</v>
@@ -1342,14 +1348,14 @@
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="18"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="19"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
@@ -1357,11 +1363,11 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1">
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickTop="1">
+    <row r="22" spans="1:6" ht="15.75" thickTop="1">
       <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1377,7 @@
       <c r="C22" s="11"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
         <v>9</v>
@@ -1379,7 +1385,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
         <v>14</v>
@@ -1387,7 +1393,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="19"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
@@ -1395,7 +1401,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1">
+    <row r="26" spans="1:6" ht="15.75" thickTop="1">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
     </row>
